--- a/TouchGFX/assets/texts/texts.xlsx
+++ b/TouchGFX/assets/texts/texts.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1083" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1326" uniqueCount="74">
   <si>
     <t xml:space="preserve">Font</t>
   </si>
@@ -221,6 +221,24 @@
   </si>
   <si>
     <t xml:space="preserve">25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Add</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GRAPH_Y_VALUE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1234567890-</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Graph_Y_value</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Graph_y_value</t>
   </si>
 </sst>
 </file>
@@ -1480,6 +1498,23 @@
       </c>
     </row>
     <row r="5" spans="2:15">
+      <c r="B5" t="s">
+        <v>72</v>
+      </c>
+      <c r="C5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D5">
+        <v>15</v>
+      </c>
+      <c r="E5">
+        <v>4</v>
+      </c>
+      <c r="F5"/>
+      <c r="G5" t="s">
+        <v>71</v>
+      </c>
+      <c r="H5"/>
       <c r="I5"/>
       <c r="K5" s="8" t="s">
         <v>1</v>
@@ -1703,13 +1738,29 @@
         <v>58</v>
       </c>
       <c r="E6" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="F6" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="7" spans="2:10"/>
+    <row r="7" spans="2:10">
+      <c r="B7" t="s">
+        <v>73</v>
+      </c>
+      <c r="C7" t="s">
+        <v>72</v>
+      </c>
+      <c r="D7" t="s">
+        <v>62</v>
+      </c>
+      <c r="E7" t="s">
+        <v>46</v>
+      </c>
+      <c r="F7" t="s">
+        <v>59</v>
+      </c>
+    </row>
     <row r="8" spans="2:10"/>
     <row r="9" spans="2:10"/>
     <row r="10" spans="2:10"/>

--- a/TouchGFX/assets/texts/texts.xlsx
+++ b/TouchGFX/assets/texts/texts.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1326" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1711" uniqueCount="78">
   <si>
     <t xml:space="preserve">Font</t>
   </si>
@@ -239,6 +239,18 @@
   </si>
   <si>
     <t xml:space="preserve">Graph_y_value</t>
+  </si>
+  <si>
+    <t xml:space="preserve">100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">999</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GB-DIRECTION</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;v&gt;</t>
   </si>
 </sst>
 </file>
@@ -1476,10 +1488,10 @@
         <v>4</v>
       </c>
       <c r="F4"/>
-      <c r="G4"/>
-      <c r="H4" t="s">
-        <v>48</v>
-      </c>
+      <c r="G4" t="s">
+        <v>71</v>
+      </c>
+      <c r="H4"/>
       <c r="I4"/>
       <c r="K4" s="5" t="s">
         <v>17</v>
@@ -1704,7 +1716,7 @@
         <v>58</v>
       </c>
       <c r="E4" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="F4" t="s">
         <v>59</v>
@@ -1721,7 +1733,7 @@
         <v>62</v>
       </c>
       <c r="E5" t="s">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="F5" t="s">
         <v>59</v>
